--- a/Maleinsäure/Simulation_MaleicAcid_Ragone-Plot_Zwischenergebnis.xlsx
+++ b/Maleinsäure/Simulation_MaleicAcid_Ragone-Plot_Zwischenergebnis.xlsx
@@ -16,6 +16,12 @@
     <definedName name="results_1" localSheetId="1">Ergebnisse!#REF!</definedName>
     <definedName name="results_2" localSheetId="1">Ergebnisse!#REF!</definedName>
     <definedName name="results_3" localSheetId="1">Ergebnisse!$A$21:$E$31</definedName>
+    <definedName name="results_4" localSheetId="1">Ergebnisse!#REF!</definedName>
+    <definedName name="results_5" localSheetId="1">Ergebnisse!#REF!</definedName>
+    <definedName name="results_6" localSheetId="1">Ergebnisse!#REF!</definedName>
+    <definedName name="results_7" localSheetId="1">Ergebnisse!#REF!</definedName>
+    <definedName name="results_8" localSheetId="1">Ergebnisse!#REF!</definedName>
+    <definedName name="results_9" localSheetId="1">Ergebnisse!$A$34:$E$43</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -67,11 +73,77 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="5" name="results4" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\ukdns\Documents\Wolfgang Nguyen\Hiwi\Simulation\MaleicAcid\Ergebnis\MaleicAcid_Elektrosorption_190603\results.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="results5" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\ukdns\Documents\Wolfgang Nguyen\Hiwi\Simulation\MaleicAcid\Ergebnis\MaleicAcid_Elektrosorption_190603\results.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="results6" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\ukdns\Documents\Wolfgang Nguyen\Hiwi\Simulation\MaleicAcid\Ergebnis\MaleicAcid_Elektrosorption_190603\results.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="results7" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\ukdns\Documents\Wolfgang Nguyen\Hiwi\Simulation\MaleicAcid\Ergebnis\MaleicAcid_Elektrosorption_190603\results.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="results8" type="6" refreshedVersion="4" background="1">
+    <textPr codePage="850" sourceFile="C:\Users\ukdns\Documents\Wolfgang Nguyen\Hiwi\Simulation\MaleicAcid\Ergebnis\MaleicAcid_Elektrosorption_190603\results.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="results9" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\ukdns\Documents\Wolfgang Nguyen\Hiwi\Simulation\MaleicAcid\Ergebnis\MaleicAcid_Elektrosorption_190603\results.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>mmol/L</t>
   </si>
@@ -339,78 +411,72 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Ergebnisse!$H$3:$H$12</c:f>
+              <c:f>Ergebnisse!$H$3:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.09017E-2</c:v>
+                  <c:v>5.1912399999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7906299999999998E-2</c:v>
+                  <c:v>8.1968200000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6578700000000001E-2</c:v>
+                  <c:v>8.7491600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3268500000000003E-2</c:v>
+                  <c:v>3.2687099999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6959299999999999E-2</c:v>
+                  <c:v>2.0210100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6754000000000002E-2</c:v>
+                  <c:v>1.3964300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.12947E-2</c:v>
+                  <c:v>9.214E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2205100000000003E-3</c:v>
+                  <c:v>5.1452299999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9068899999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.27662E-3</c:v>
+                  <c:v>1.6775099999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ergebnisse!$I$3:$I$12</c:f>
+              <c:f>Ergebnisse!$I$3:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.1803300000000001E-6</c:v>
+                  <c:v>1.0382499999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5812699999999998E-6</c:v>
+                  <c:v>1.6393599999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3157400000000007E-6</c:v>
+                  <c:v>2.61846E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.03919E-5</c:v>
+                  <c:v>4.4041600000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.72389E-5</c:v>
+                  <c:v>5.5803600000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7107000000000001E-5</c:v>
+                  <c:v>6.3774899999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.28111E-5</c:v>
+                  <c:v>6.7465200000000006E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4530600000000003E-5</c:v>
+                  <c:v>6.3847099999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.04501E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5547799999999999E-5</c:v>
+                  <c:v>4.4971500000000001E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,11 +491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129963648"/>
-        <c:axId val="129963072"/>
+        <c:axId val="55166656"/>
+        <c:axId val="55167232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129963648"/>
+        <c:axId val="55166656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -439,12 +505,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129963072"/>
+        <c:crossAx val="55167232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129963072"/>
+        <c:axId val="55167232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129963648"/>
+        <c:crossAx val="55166656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -513,11 +579,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_9" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="results_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1094,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,13 +1235,13 @@
         <v>1.430582817542786E-5</v>
       </c>
       <c r="G3">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H3">
-        <v>1.09017E-2</v>
+        <v>5.1912399999999997E-2</v>
       </c>
       <c r="I3" s="4">
-        <v>2.1803300000000001E-6</v>
+        <v>1.0382499999999999E-5</v>
       </c>
       <c r="J3">
         <v>5000</v>
@@ -1195,13 +1265,13 @@
         <v>2.102822955516377E-5</v>
       </c>
       <c r="G4">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H4">
-        <v>2.7906299999999998E-2</v>
+        <v>8.1968200000000005E-2</v>
       </c>
       <c r="I4" s="4">
-        <v>5.5812699999999998E-6</v>
+        <v>1.6393599999999998E-5</v>
       </c>
       <c r="J4">
         <v>5000</v>
@@ -1225,16 +1295,16 @@
         <v>2.9394207488713667E-5</v>
       </c>
       <c r="G5">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="H5">
-        <v>4.6578700000000001E-2</v>
+        <v>8.7491600000000003E-2</v>
       </c>
       <c r="I5" s="4">
-        <v>9.3157400000000007E-6</v>
+        <v>2.61846E-5</v>
       </c>
       <c r="J5">
-        <v>5000</v>
+        <v>3341.33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1255,16 +1325,16 @@
         <v>3.7789551235765238E-5</v>
       </c>
       <c r="G6">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H6">
-        <v>5.3268500000000003E-2</v>
+        <v>3.2687099999999997E-2</v>
       </c>
       <c r="I6" s="4">
-        <v>2.03919E-5</v>
+        <v>4.4041600000000002E-5</v>
       </c>
       <c r="J6">
-        <v>2612.2399999999998</v>
+        <v>742.18799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1282,87 +1352,76 @@
         <v>4.3252062739148429E-5</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="H7">
-        <v>2.6959299999999999E-2</v>
+        <v>2.0210100000000002E-2</v>
       </c>
       <c r="I7" s="4">
-        <v>3.72389E-5</v>
+        <v>5.5803600000000002E-5</v>
       </c>
       <c r="J7">
-        <v>723.95699999999999</v>
+        <v>362.16500000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G8">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H8">
-        <v>1.6754000000000002E-2</v>
+        <v>1.3964300000000001E-2</v>
       </c>
       <c r="I8" s="4">
-        <v>4.7107000000000001E-5</v>
+        <v>6.3774899999999998E-5</v>
       </c>
       <c r="J8">
-        <v>355.65699999999998</v>
+        <v>218.96199999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G9">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="H9">
-        <v>1.12947E-2</v>
+        <v>9.214E-3</v>
       </c>
       <c r="I9" s="4">
-        <v>5.28111E-5</v>
+        <v>6.7465200000000006E-5</v>
       </c>
       <c r="J9">
-        <v>213.869</v>
+        <v>136.57400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G10">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="H10">
-        <v>7.2205100000000003E-3</v>
+        <v>5.1452299999999998E-3</v>
       </c>
       <c r="I10" s="4">
-        <v>5.4530600000000003E-5</v>
+        <v>6.3847099999999994E-5</v>
       </c>
       <c r="J10">
-        <v>132.41200000000001</v>
+        <v>80.586799999999997</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
-        <v>3.9068899999999997E-3</v>
+        <v>1.6775099999999999E-3</v>
       </c>
       <c r="I11" s="4">
-        <v>5.04501E-5</v>
+        <v>4.4971500000000001E-5</v>
       </c>
       <c r="J11">
-        <v>77.440700000000007</v>
+        <v>37.301600000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12">
-        <v>0.2</v>
-      </c>
-      <c r="H12">
-        <v>1.27662E-3</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3.5547799999999999E-5</v>
-      </c>
-      <c r="J12">
-        <v>35.912700000000001</v>
-      </c>
+      <c r="I12" s="4"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="4"/>
@@ -1393,6 +1452,146 @@
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.04</v>
+      </c>
+      <c r="B35">
+        <v>5.1912399999999997E-2</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1.0382499999999999E-5</v>
+      </c>
+      <c r="D35">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.06</v>
+      </c>
+      <c r="B36">
+        <v>8.1968200000000005E-2</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1.6393599999999998E-5</v>
+      </c>
+      <c r="D36">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.08</v>
+      </c>
+      <c r="B37">
+        <v>8.7491600000000003E-2</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2.61846E-5</v>
+      </c>
+      <c r="D37">
+        <v>3341.33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.1</v>
+      </c>
+      <c r="B38">
+        <v>3.2687099999999997E-2</v>
+      </c>
+      <c r="C38" s="4">
+        <v>4.4041600000000002E-5</v>
+      </c>
+      <c r="D38">
+        <v>742.18799999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.12</v>
+      </c>
+      <c r="B39">
+        <v>2.0210100000000002E-2</v>
+      </c>
+      <c r="C39" s="4">
+        <v>5.5803600000000002E-5</v>
+      </c>
+      <c r="D39">
+        <v>362.16500000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="B40">
+        <v>1.3964300000000001E-2</v>
+      </c>
+      <c r="C40" s="4">
+        <v>6.3774899999999998E-5</v>
+      </c>
+      <c r="D40">
+        <v>218.96199999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.16</v>
+      </c>
+      <c r="B41">
+        <v>9.214E-3</v>
+      </c>
+      <c r="C41" s="4">
+        <v>6.7465200000000006E-5</v>
+      </c>
+      <c r="D41">
+        <v>136.57400000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.18</v>
+      </c>
+      <c r="B42">
+        <v>5.1452299999999998E-3</v>
+      </c>
+      <c r="C42" s="4">
+        <v>6.3847099999999994E-5</v>
+      </c>
+      <c r="D42">
+        <v>80.586799999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.2</v>
+      </c>
+      <c r="B43">
+        <v>1.6775099999999999E-3</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4.4971500000000001E-5</v>
+      </c>
+      <c r="D43">
+        <v>37.301600000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
